--- a/daschland_ontology/lists/list.xlsx
+++ b/daschland_ontology/lists/list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/daschland_ontology/lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F7198D-4454-4D48-9A81-3766B8B6EB75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548DD529-51B1-DD47-B5EB-A14E30E78DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34080" yWindow="500" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23360" yWindow="500" windowWidth="50100" windowHeight="26380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="License List" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="237">
   <si>
     <t>ID (optional)</t>
   </si>
@@ -712,6 +712,36 @@
   </si>
   <si>
     <t>Domaine Public</t>
+  </si>
+  <si>
+    <t>en_comments</t>
+  </si>
+  <si>
+    <t>fr_comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licenses used in the project </t>
+  </si>
+  <si>
+    <t>Licences en utilisation dans le projet</t>
+  </si>
+  <si>
+    <t>The events of Alice in Wonderland are subdivised into four main types and their subdivisions. This list explores the possibility of hierarchical controlled vocabularies.</t>
+  </si>
+  <si>
+    <t>Defines each character as either main or secondary</t>
+  </si>
+  <si>
+    <t>Définit chaque personnage selon qu'il est principal ou secondaire</t>
+  </si>
+  <si>
+    <t>Les événements d'Alice au Pays des Merveilles sont divisés en quatre types principaux et leurs subdivisions. Cette liste explore les possibilités de vocabulaire contrôlé hiérarchique.</t>
+  </si>
+  <si>
+    <t>Mots-clés associés à l'univers créé par Lewis Carroll. Cette liste explore les possibilités de vocabulaire contrôlé hiérarchique</t>
+  </si>
+  <si>
+    <t>Keywords associated with the universe created by Lewis Carroll. This list explores the possibilities of hierarchical controlled vocabulary.</t>
   </si>
 </sst>
 </file>
@@ -751,7 +781,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -774,11 +804,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -788,6 +829,11 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1918,21 +1964,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="10.83203125" style="1" customWidth="1"/>
     <col min="4" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="7" width="32" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1948,8 +1994,14 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -1959,8 +2011,14 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1977,7 +2035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1994,7 +2052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -2011,7 +2069,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -2028,7 +2086,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -2045,7 +2103,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -2062,7 +2120,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -2079,7 +2137,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -2096,7 +2154,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>224</v>
       </c>
@@ -2113,7 +2171,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2135,9 +2193,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2148,11 +2208,11 @@
     <col min="7" max="7" width="23.1640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="29.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="27.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28" style="1" customWidth="1"/>
     <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2180,8 +2240,14 @@
       <c r="I1" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J1" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="4" t="s">
         <v>27</v>
@@ -2195,8 +2261,14 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J2" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
@@ -2217,7 +2289,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>32</v>
       </c>
@@ -2242,7 +2314,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>35</v>
       </c>
@@ -2267,7 +2339,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
@@ -2292,7 +2364,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>40</v>
       </c>
@@ -2317,7 +2389,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
@@ -2342,7 +2414,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>46</v>
       </c>
@@ -2363,7 +2435,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>48</v>
       </c>
@@ -2388,7 +2460,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>51</v>
       </c>
@@ -2413,7 +2485,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>53</v>
       </c>
@@ -2438,7 +2510,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>56</v>
       </c>
@@ -2459,7 +2531,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>59</v>
       </c>
@@ -2484,7 +2556,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>61</v>
       </c>
@@ -2509,7 +2581,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>63</v>
       </c>
@@ -2595,9 +2667,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2605,11 +2679,12 @@
     <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
     <col min="3" max="4" width="18" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="16" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2625,8 +2700,14 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2" t="s">
         <v>72</v>
@@ -2636,8 +2717,14 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>74</v>
       </c>
@@ -2654,7 +2741,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>77</v>
       </c>
@@ -2671,42 +2758,42 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2726,7 +2813,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U140"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2783,8 +2872,12 @@
       <c r="K1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="L1" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>228</v>
+      </c>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
@@ -2810,8 +2903,12 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
+      <c r="L2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>235</v>
+      </c>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>

--- a/daschland_ontology/lists/list.xlsx
+++ b/daschland_ontology/lists/list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/daschland_ontology/lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548DD529-51B1-DD47-B5EB-A14E30E78DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418A1BC1-A9CB-5C48-9418-A65760F13291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23360" yWindow="500" windowWidth="50100" windowHeight="26380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9380" yWindow="620" windowWidth="58460" windowHeight="26380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="License List" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="243">
   <si>
     <t>ID (optional)</t>
   </si>
@@ -742,6 +742,24 @@
   </si>
   <si>
     <t>Keywords associated with the universe created by Lewis Carroll. This list explores the possibilities of hierarchical controlled vocabulary.</t>
+  </si>
+  <si>
+    <t>Type of symbols that appear in the text</t>
+  </si>
+  <si>
+    <t>Literary devices that are used in the text</t>
+  </si>
+  <si>
+    <t>Figures de style utilisées dans le texte</t>
+  </si>
+  <si>
+    <t>Type de symboles apparaissant dans le texte</t>
+  </si>
+  <si>
+    <t>Themes appearing in the text</t>
+  </si>
+  <si>
+    <t>Thématiques abordées dans le texte</t>
   </si>
 </sst>
 </file>
@@ -819,7 +837,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -834,6 +852,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2195,8 +2214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2547,11 +2566,11 @@
       <c r="E14" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>37</v>
+      <c r="G14" s="14" t="s">
+        <v>60</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -2670,7 +2689,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2679,7 +2698,7 @@
     <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
     <col min="3" max="4" width="18" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="1" customWidth="1"/>
+    <col min="6" max="6" width="68.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" style="1" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -2813,8 +2832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U140"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2828,7 +2847,10 @@
     <col min="8" max="8" width="17.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="1" customWidth="1"/>
     <col min="10" max="10" width="23.6640625" style="1" customWidth="1"/>
-    <col min="11" max="16" width="10.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="53" style="1" customWidth="1"/>
+    <col min="13" max="13" width="104.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="10.83203125" style="1" customWidth="1"/>
     <col min="17" max="17" width="23.5" style="1" customWidth="1"/>
     <col min="18" max="18" width="16" style="1" customWidth="1"/>
     <col min="19" max="19" width="57.6640625" style="1" customWidth="1"/>
@@ -2940,8 +2962,12 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
+      <c r="L3" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>242</v>
+      </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
@@ -4495,8 +4521,12 @@
       <c r="I42" s="7"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
+      <c r="L42" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="M42" s="13" t="s">
+        <v>240</v>
+      </c>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
@@ -4676,8 +4706,12 @@
       <c r="I47" s="7"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
+      <c r="L47" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="M47" s="13" t="s">
+        <v>239</v>
+      </c>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
